--- a/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.6631078200721</v>
+        <v>-2.608989345952143</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.228739062812205</v>
+        <v>-3.235629392866162</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.821111439846213</v>
+        <v>-4.775957765063423</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.492564338585614</v>
+        <v>-2.343749618361246</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.565398065917172</v>
+        <v>-2.4599054670026</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.005444732237974</v>
+        <v>-4.782398314674078</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.960708760378251</v>
+        <v>-2.065877647810365</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.321105830538572</v>
+        <v>-2.220500537058372</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.271201050668881</v>
+        <v>-4.243332221588585</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.409868997761984</v>
+        <v>1.494410985121038</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.364411529756464</v>
+        <v>1.089958464352323</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.5319230281542302</v>
+        <v>-0.4168808486921076</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.188364240782627</v>
+        <v>1.309250262206753</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.295181932653956</v>
+        <v>1.35074705628818</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.632855730076806</v>
+        <v>-1.587828538849441</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8641280037527409</v>
+        <v>0.8254298122920725</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6968165150053344</v>
+        <v>0.6648462322504681</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.782076787442086</v>
+        <v>-1.63231262503287</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.1335939213436883</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.5111054641880216</v>
+        <v>-0.5111054641880215</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3959742764671175</v>
+        <v>-0.370215312761422</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4638154496642493</v>
+        <v>-0.4748982615568397</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.687392417816681</v>
+        <v>-0.6736860728749408</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3613731732829929</v>
+        <v>-0.3462208641226528</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3828129169678268</v>
+        <v>-0.3753288650756507</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7184745348464661</v>
+        <v>-0.724994830650101</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2932578274166171</v>
+        <v>-0.3073592564243718</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3398679156646751</v>
+        <v>-0.3374701795196671</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6500352372092525</v>
+        <v>-0.6468530392576007</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2848667741388753</v>
+        <v>0.2889634497920696</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2616968291667359</v>
+        <v>0.2281590032037119</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.06724599491129288</v>
+        <v>-0.06989803413980737</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2533573038473795</v>
+        <v>0.2735226187972861</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2627506902101763</v>
+        <v>0.273454577196474</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2987048141128911</v>
+        <v>-0.3251072191314536</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1670201611586889</v>
+        <v>0.1623278387336969</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.127715082203099</v>
+        <v>0.1238778272384403</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3326006560416733</v>
+        <v>-0.3020705682856372</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-2.310516269357513</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-2.632098456202965</v>
+        <v>-2.632098456202966</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.8061258030597845</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6823061055974944</v>
+        <v>-0.6531584737933376</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.551807790635874</v>
+        <v>-1.473994545577301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.156828004876967</v>
+        <v>-2.951733205728158</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.073115213152638</v>
+        <v>-1.009062151284604</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.919582041417587</v>
+        <v>-3.876524042705875</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.117398333983209</v>
+        <v>-4.177094897209983</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4240983074760159</v>
+        <v>-0.2624170771148288</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.327314217662567</v>
+        <v>-2.238433731328207</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.169364734798779</v>
+        <v>-3.22406628248105</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.229837853571492</v>
+        <v>2.324025688858935</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.259825954180448</v>
+        <v>1.247835218246974</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.3940375869827032</v>
+        <v>-0.428151986757386</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.47696417717561</v>
+        <v>2.772857383834433</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.8617724791877602</v>
+        <v>-0.7101267108669949</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.168610510960469</v>
+        <v>-1.157314346823189</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.972562413118605</v>
+        <v>1.934509177655302</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.1104158988665887</v>
+        <v>-0.2278539075133467</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.118205786922823</v>
+        <v>-1.126811678859474</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.03224265816630358</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3877767818676219</v>
+        <v>-0.3877767818676218</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1157449239330671</v>
@@ -974,7 +974,7 @@
         <v>-0.3620627004763131</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4124552973770566</v>
+        <v>-0.4124552973770567</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.149712181952517</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1251082505851986</v>
+        <v>-0.1277504317633895</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2896126001213875</v>
+        <v>-0.2878245074018557</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5877138034947753</v>
+        <v>-0.5747222317039115</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1520631941333077</v>
+        <v>-0.137331498376382</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5223659647585455</v>
+        <v>-0.5324396446801538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5560749648968738</v>
+        <v>-0.5548250155550626</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07679371755011158</v>
+        <v>-0.04858120658164364</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3720228848491184</v>
+        <v>-0.374881029216342</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5261017200671475</v>
+        <v>-0.5340125819221785</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6012631773537973</v>
+        <v>0.6258575075285294</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3440539226742471</v>
+        <v>0.3293872964187607</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.09282745570685437</v>
+        <v>-0.09190231189106059</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.457545309643443</v>
+        <v>0.5415526969033875</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1409567893463671</v>
+        <v>-0.1183419798813443</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2009436548177795</v>
+        <v>-0.2056440756019542</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3965893844741202</v>
+        <v>0.4020242564504918</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.01724993360394273</v>
+        <v>-0.04430548690247103</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.234772037250035</v>
+        <v>-0.2406530287521347</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>0.01867296640064436</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.879457057783691</v>
+        <v>-1.879457057783692</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.691181567303677</v>
+        <v>-4.772127247784712</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.573023172274415</v>
+        <v>-2.634318516475536</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.506331315639262</v>
+        <v>-3.627671450122853</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.565138012807779</v>
+        <v>-2.652899213224389</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.878076106060623</v>
+        <v>-2.773147520417535</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.798301131264875</v>
+        <v>-4.882203395159173</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.839839202580245</v>
+        <v>-2.826181496138686</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.919113603661141</v>
+        <v>-1.918071893619065</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.537345642019714</v>
+        <v>-3.417030148620593</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.8058960805942263</v>
+        <v>-0.7205978148277059</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.303235476199597</v>
+        <v>2.188313688018231</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6290361153060946</v>
+        <v>0.5971028290348191</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.196377801845572</v>
+        <v>3.666616311962841</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.905012766638569</v>
+        <v>2.865383430316498</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.1158998524989453</v>
+        <v>-0.0689054880265056</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6027379234996769</v>
+        <v>0.6008344388772283</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.930897075871056</v>
+        <v>1.743492435086242</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.3928735261236265</v>
+        <v>-0.2362127140024664</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.04514413364059402</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3947841526195212</v>
+        <v>-0.3947841526195211</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.06726067221847287</v>
@@ -1197,7 +1197,7 @@
         <v>0.004349636564367929</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.4377962753370139</v>
+        <v>-0.4377962753370141</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.9164980844049717</v>
+        <v>-0.92760618314002</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5194799256401871</v>
+        <v>-0.5117777468776473</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7043289170456366</v>
+        <v>-0.7067656320556929</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4139573151552417</v>
+        <v>-0.4363299875164252</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4437596183245332</v>
+        <v>-0.4257462422404003</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7162311950151915</v>
+        <v>-0.7350390340246319</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5599393230496379</v>
+        <v>-0.5594646629629627</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3647786724719196</v>
+        <v>-0.3528461148317009</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6660559991330466</v>
+        <v>-0.6481641165042507</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.2389800363651671</v>
+        <v>-0.209071939415563</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9308596554016162</v>
+        <v>0.9559350851317168</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3327601258580835</v>
+        <v>0.3761430942082523</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9263405366453845</v>
+        <v>1.005087711137336</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.792073940579811</v>
+        <v>0.8344190863032446</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04516492818677006</v>
+        <v>0.0225716199857897</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1905782704156722</v>
+        <v>0.2004176658480044</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6105760687778441</v>
+        <v>0.5120806894943397</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.09050741795786843</v>
+        <v>-0.06061251443243028</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-1.403192671118847</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-2.698525751062103</v>
+        <v>-2.698525751062102</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.09881222332442929</v>
@@ -1306,7 +1306,7 @@
         <v>-0.9553587283469513</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-2.398470441404276</v>
+        <v>-2.398470441404277</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.113165421926371</v>
+        <v>-1.131590294336125</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.57131856837917</v>
+        <v>-1.629587786870044</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.053381562145126</v>
+        <v>-3.161086033483884</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8616025372313229</v>
+        <v>-0.9367598453241046</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.374236403705676</v>
+        <v>-2.515866607600736</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.775741751870496</v>
+        <v>-3.766146784674085</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6856058138786078</v>
+        <v>-0.7155669736957913</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.767266070961708</v>
+        <v>-1.816622610976421</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.164742369887557</v>
+        <v>-3.166231329911663</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.046761266231208</v>
+        <v>1.049795911603362</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6024967942374252</v>
+        <v>0.5895112752983347</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.082108980635694</v>
+        <v>-1.103231510690606</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.550197148038313</v>
+        <v>1.39003814603324</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.3311259355305314</v>
+        <v>-0.2823490908887357</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.672083959648877</v>
+        <v>-1.748671101924156</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8876125632323919</v>
+        <v>0.8886051759169628</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.1878796783609913</v>
+        <v>-0.2716337988269896</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.698259772508294</v>
+        <v>-1.696045806824246</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1027633894327119</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4350849622713176</v>
+        <v>-0.4350849622713177</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.04010806020230366</v>
@@ -1402,7 +1402,7 @@
         <v>-0.2352116141047671</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4523431533493496</v>
+        <v>-0.4523431533493495</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.01829853459387482</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2098360800536453</v>
+        <v>-0.2102751100450818</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2884924208142554</v>
+        <v>-0.2988944284354926</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5746737495139903</v>
+        <v>-0.5736282154253357</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1308017118149689</v>
+        <v>-0.1424230869491191</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3777507894052183</v>
+        <v>-0.3797950246996064</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5648905879619909</v>
+        <v>-0.5689917953648566</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1180582666148478</v>
+        <v>-0.1236189505361623</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3012110780554102</v>
+        <v>-0.3018386577336576</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5351232717973288</v>
+        <v>-0.5367800521562904</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2492312802468606</v>
+        <v>0.2437170030903356</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1390825054936852</v>
+        <v>0.1419358524731579</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2555930712142905</v>
+        <v>-0.244712841589902</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2868967673524925</v>
+        <v>0.2595378304158101</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.06136567888718258</v>
+        <v>-0.0545265552881993</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3103207670441426</v>
+        <v>-0.3165814335146082</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1764265304230015</v>
+        <v>0.1766577989093903</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.03691804589257843</v>
+        <v>-0.05058060945690385</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3317722676196395</v>
+        <v>-0.3441475460931456</v>
       </c>
     </row>
     <row r="28">
